--- a/1일차/영화.xlsx
+++ b/1일차/영화.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="128">
   <si>
     <t>평점</t>
   </si>
@@ -25,424 +25,379 @@
     <t>제목</t>
   </si>
   <si>
-    <t>썬다운</t>
-  </si>
-  <si>
-    <t>육사오(6/45)</t>
-  </si>
-  <si>
-    <t>비커밍 제인</t>
-  </si>
-  <si>
-    <t>놉</t>
-  </si>
-  <si>
-    <t>핫 블러드</t>
+    <t>늑대사냥</t>
+  </si>
+  <si>
+    <t>후궁 : 제왕의 첩</t>
   </si>
   <si>
     <t>비상선언</t>
   </si>
   <si>
+    <t>아바타 리마스터링</t>
+  </si>
+  <si>
+    <t>나, 다니엘 블레이크</t>
+  </si>
+  <si>
+    <t>사랑할 땐 누구나 최악이 된다</t>
+  </si>
+  <si>
     <t>공조2: 인터내셔날</t>
   </si>
   <si>
-    <t>순응자</t>
-  </si>
-  <si>
-    <t>킬 유어 달링</t>
-  </si>
-  <si>
-    <t>유열의 음악앨범</t>
+    <t>경주</t>
   </si>
   <si>
     <t>탑건: 매버릭</t>
   </si>
   <si>
-    <t>한산: 용의 출현</t>
-  </si>
-  <si>
-    <t>인생은 뷰티풀: 비타돌체</t>
-  </si>
-  <si>
-    <t>토르: 러브 앤 썬더</t>
-  </si>
-  <si>
-    <t>서울대작전</t>
+    <t>드래곤볼 슈퍼: 슈퍼 히어로</t>
+  </si>
+  <si>
+    <t>러브 인 히말라야</t>
+  </si>
+  <si>
+    <t>둠둠</t>
+  </si>
+  <si>
+    <t>타짜</t>
+  </si>
+  <si>
+    <t>블랙폰</t>
+  </si>
+  <si>
+    <t>오! 마이 고스트</t>
+  </si>
+  <si>
+    <t>프린세스 아야</t>
+  </si>
+  <si>
+    <t>프레이</t>
+  </si>
+  <si>
+    <t>사랑은 비를 타고</t>
+  </si>
+  <si>
+    <t>혐오스런 마츠코의 일생</t>
+  </si>
+  <si>
+    <t>홈리스</t>
   </si>
   <si>
     <t>헌트</t>
   </si>
   <si>
-    <t>리미트</t>
-  </si>
-  <si>
-    <t>포드 V 페라리</t>
-  </si>
-  <si>
-    <t>야차</t>
-  </si>
-  <si>
-    <t>인간중독</t>
-  </si>
-  <si>
-    <t>알라딘</t>
-  </si>
-  <si>
-    <t>미쓰 홍당무</t>
-  </si>
-  <si>
-    <t>헤어질 결심</t>
-  </si>
-  <si>
-    <t>프레이</t>
-  </si>
-  <si>
-    <t>김호중 컴백 무비 빛이 나는 사람 PART 1. 다시 당신 곁으로</t>
-  </si>
-  <si>
-    <t>성적표의 김민영</t>
-  </si>
-  <si>
-    <t>엑스맨 탄생: 울버린</t>
-  </si>
-  <si>
-    <t>집으로 가는 길</t>
-  </si>
-  <si>
-    <t>얼라이드</t>
-  </si>
-  <si>
-    <t>너의 췌장을 먹고 싶어</t>
-  </si>
-  <si>
-    <t>말아</t>
-  </si>
-  <si>
-    <t>카터</t>
-  </si>
-  <si>
-    <t>한여름밤의 재즈</t>
+    <t>스피드 큐브의 천재들</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>10</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그냥 이런 삶도 있구나 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">나의 웃음코드와 너무 통하고한번 꼰 풍자 너무 재미있음 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 가을 제인 오스틴 소설과 함께하고 싶어지네요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">딱 보고 나왔을땐 7점정도 줄만했는데 무비팬던가 영화리뷰 해놓은거 보니 잘만든 영화구나싶었음 영화해석 찾아보는거 추천 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">연기고 액션이고 최악 아직도 이런영화를 만들다니....연기하는 연기자들도 다들 힘들었을듯 그리고 여기 평점에 알바들 너무많이 쓴다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">연출너무 구림… 송강호 이병헌등 대배우들이랑 연출등 뭔가 결이 안맞음.. 각본은 흥미롭고 괜찮은데…  기획 연출이 핵구림.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">평이 너무 안좋아서 영화관에서는 안보고 쿠팡플레이로 봄. 배우들 연기 구경 해도 뽕 뽑는거 아님? 하고 시작했는데 하 진짜 ㅋㅋ 마지막에는 웃음도 안나와요ㅋㅋㅋㅋ 아 진짜 후반부는 인상 쓰면서 2배속으로 그냥 돌렸어요. 2배속인데도 지루함. 왜 2시간 20분짜리로 만든거에요? 그냥 뺄거 다 빼고 1시간 20분으로 만들었으면 진짜 훨씬 괜찮았을듯 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">공조 3편은 나오지 않았으면 좋겠어요.유해진의 개그 외에는 특별히 지루했어요. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">쿠키가 ㄹㅇ 맛도리임... 안보고 나오면 어쩔 수 없지..n차뛰세요..^^ 즐추에 가볍게 보기 좋고 눈호강 제대로 하는 영화 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">희대의 명작, 보는 내내 소름 돋늗다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">배우들 연기는 진심 뛰어남근데 다들 뭐하는건지 모르겠음교훈도 없고 난 그냥 그랬음 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">간만에 진짜 영화보면서 재밌게 웃었음.. 강추.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">난해하지만 지루하지는 않았다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진선규 연기에 감탄을 와우 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">계절이 바뀔 때마다 보는 영화... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진짜 오랜만에 영화다운 영화봤다볼거리1. 허접하지 않은 액션2. 현빈,다니엘헤니, 윤아 외모 3종세트3. 과하지않은 코믹4. 스쳐지나가는 엑스트라도 발연기없음 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">얼굴이 서사다!!!! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이게 영화다, 표값이 전혀 아깝지 않았다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진짜 북한미화한다는 극우 어르신들은 영화관 출입 금지시키면 좋겠다 ㅋㅋㅋ국민들이 바보냐? 영화는 영화로 봐라 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">영화관에서 보니까 국뽕 지리더라구요. 좋았습니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">역시 김호중가수는 전세계가 알아주는 테너 맞네요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">가끔 가다 보이는 돈 모자란 CG말고는 나름 마블식 유머 잘 끼워넣었고. 영상미는 눈을 꽤 즐겁게 한다. 기대를 안하고 봐서인지 스토리도 나쁘지 않았다. PCPC 하길래 곰곰히 생각해보니 발키리랑 바위의 동성애. 굳이 필요한 내용이었나? 싶은 요소는 좀 별로지만. 괜찮은 결말, 고르의 열연은 여운을 남긴다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">와 진짜 화려한 배우 캐스팅 대비 많은 실망감이 남습니다.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">초보 감독이 이 정도면 준수하지요. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">막판에 초글링 싸움에 토린이 데뷔전은 뭐냐 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이정재배우의 감독변신재밌는영화 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">연기너무잘하시고너무웃김 재밌음  맘편안히 웃고오세요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">보는 내내 스토리가 자꾸 산으로 가네 했는데 정말 마지막에 산에서 싸우는걸 보고 마지막을 위한 감독의 치밀한 빌드업이었다는 걸 깨달았음 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">액션도 너무 좋고 재미있었습니다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진짜 모든 면에서 최고!! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">왜 재미없다고하는지...오히려 정치사회적 현실을 너무 잘 반영한것같아 소름끼치던데.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">개인적으로 재밌게 봤음 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 포드망해라 제발 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1편보다 스토리의 짜임이 못합니다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">와 연기들을 다 너무 못하는데 특히 여자분 연기 너무 어색하네….. 보는중인데 평점 남기는중 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">하 걍 미침 일단 비주ㅜ얼부터 미쳣어어유ㅠ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">세가족이 보기 재밌었어요초3 아들도 재밌게 봐서 더 좋았어요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">내돈내산 리뷰.중간에 윤아 나올때마다 진짜 한숨...영화제목이 공조2가 아니고 윤아와 두남자로 바꿔야하는거아닌가 할정도로 무슨 연애 코미디 물인가 싶더라... 그것도 잠깐나오면 괜찮은데 계속 집에서 일어나는 일만 보여주면서 영화가 루즈해짐.그나마다 웃기면 몰라 ㅋㅋㅋ 오글거리는 것들뿐..마지막에 하이라이트 폭파장면도 그냥저냥...에휴 육사오가 훨씬 낫더라구요한국영화의 퇴보라고 진짜 생각합니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">난왜잼있지,..ㅠ여주도 넘 매력터지고 ....쩐다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">개연성 같은거 1도 없는데 아예 대놓고 없어서 더 재밌음. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진짜 제2의 극한직업 진짜 짱!! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">내용이 막 그렇게 재밌진 않았지만 현빈,다니엘헤니 보는것만으로도 가치가 있는 영화 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">초반 잼쓰 중반이후 참고 보는데 일본 거부 및 전투기 위협에서 스트레스 받음ㅋㅋ미친 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">재미있게 봤습니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">재밌어부러요.  재밌게봤어요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">너무너무 재밌어요. 안구정화 되면서 모처럼 아무생각없이 즐겁게 봤네요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">다시봐도 잼있넹공효진서루황우슬예 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">시간 가는지 모르게 재밌어요강추합니다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 모시고 내가 뭘 본거지 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다섯 번을 봤어도 그 감동의 여운이 남아내일 또 갑니다.인생은 아름다운가.이 물음에 답은.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">영화의 주인공은 변요한 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진선규배우님 연기 넘잘해요. 너무너무 대단해요. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이게 진정 데뷔작이라는것이 놀라움- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">가족들과 재밌게 봤어요 1편보다 더 재밌게 본거같습니다  다음편도 나왔으면 좋겠네여 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">아주 재미있게 잘봤습니다. 1편보다 더 괜찮내요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">왜 한번도 안본 사람은 잇어도 한번만 딱 보는게 그렇게 힘든지. 보고나면 비로소 마침내. 이해하게 되는 영화. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">어떻게 영화를 이따위로 만들었을까?참고참고 보다가 결국은 끝까지 못봤다.미국,일본,미국 제약회사는 악마화 시키고 실폐한 문제인정권 홍보물이냐.도대체 이게 나라냐.여기 나오는 좋아하던 배우들고 이제 싫어지네요.토나올것같고 역겨워서 보다말았고 처음으로 리뷰해보네요. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">자막 시도 좋았음 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">탐 크루즈로 시작해서 탐 크루즈로 끝나는 영화누구나 결말을 알고 있지만 다시보고싶은 영화가 있듯이 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 영화만 만점 줄 예정입니다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">개노잼 대사도 잘안들리고 중간에 나옴 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">노잼.. 간만에 시간 아까웠음. 리클라이너가 불편하긴 처음. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이런영화는 아무생각없이봐야합니다. 아무생각없이봐서 무난했어요 명작들처럼집중할필요없이가볍게 재밋게봣어요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">완전 재밌어요 평점 왜 낮은지 모르게씀 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">밸런스 조절 실패 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">그때는 너와 나의 헛소리가 너무 즐거워서 의미있었어. 그랬다면 그건 헛소리일까? 지금 돌아보면 헛되지 않았어. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진심  재미 없어요..    평이 왜 높은지 알수 없네요비상선언  수준 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">데드풀과의 조우를 이런식으로 찍어야했냐! 둘 다 모양빠진다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">영화가 귀엽다 미묘하게 따뜻하고 치사한 여자아이들 이야기 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이걸 보고 웃는 당신... 떠나라... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">..!...!!....!!! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">전편보다 났네요~ 즐감했습니다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">탑건1을 재미있게 봤든 아니든 꼭 봐라,이건 명작이다... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">감독 및 캐스팅, 각본. 연출은 보아라. 이따구 고구마 신파극을 찍는데 전도연이 왜 필요하며 무능한 남편역에 고수가 왠말이냐. 80년대 설정도 아닌데 눈오는날 집에서 쫓겨나는 장면, 부인전화에 무단횡단을 하고 핸드폰을 떨어트리는 아주 놀라운 연출 눈감고 봤다. 다신 영화 만들지마라. 그냥 어디가서 사무보조 해라. 전도연은 무슨 책이 잡혀서 이 영화를 선택했는가?  부디 고수도 그렇고 영화선택 안목을 높이길... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">중간부터 이상하다고 느꼈지만 유아인이 나오는데 그럴리가 없다고 생각하며 끝까지 봤지만.. 이변은 없네요.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">더도말고 덜도말고 적당히 딱 볼만한 코믹 액션 영화 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">명절에 부모님과 마음편히 보기 좋았고 재미있는 장면이 많았습니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">다소 정적이지만 두 주연배우의 연기 호흡이 좋아서 천천히 다가오는 게 있었음 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">잔잔한 감동이 있네요. 추천추천 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">스토리 연기 재미 꿀잼..ㅎ ㅎ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">웅장하고 소리가 영화관에서 보는맛이있어요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">잘생기고 잘생기고 이뻐요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">그래비티 마냥 이담에 극장에서 재상영할 영화임. 대형tv에 사운드바 있다고 집에서 내려받지 마시고 영화관에서 보세요. 저는 멀미 심해서 포디 못가고 사운드 좋은 일반관에서 봤어요. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">재밌고 신나요.윤아씨가 스크린에 자주 나오는 것만 빼고 박진감 넘치네요. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">공조2나오기를 학수고대2시간 순삭현빈 존잘 존멋 윤아 능청연기 짱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">베드로 작전의 실패는 아쉬운 건가, 전쟁을 막은 다행인건가, 몰랐던 사실을 알게 되었네요. 초호화 카메오 보는 재미가 솔솔하였고 이정재, 정우성 형님의 클라스는 여전하더군요, 다만 대사 전달력이 좀;;; 뭐라고 하는 건지 자막이 필요하더군요 ㅋㅋ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">오랜만에 실컷 웃었네 ㅋ !!몇년 만인지^^♡ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">스토리부터 연기까지 죄다 구린데거기에 반미반일까지 양념으로 버무려놓음물론 캐릭터 중에 윤석ㅇ 닮은 윤석 이란 캐릭터랑 정부인사 중에 나경ㅇ 닮은 캐릭터의 언행은 거의 현실과도 같았음 ㅋㅋ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">무슨생각으로 만들었나 모르겠다.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">액션도 재미도 두루두루 무난하게 재밌게 볼 수 있었다. 1편보다 더 좋았던거 같고, 3편도 기다려지는 영화, 현빈 너무 멋있다~~ 3편에서는 윤아하고 잘 되었으면 좋겠음 ㅋㅋ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">영화는 모르겠고 전도연의 한마디가 참 좋네요그게 책임없는 소리인지 모르겠지만그만 둿다라는 말 왜 정부 책임자들은 책망만 하는건지자기들의 사리사욕만 있을 뿐이고 남에게 책임전가만이 남아 있는게 씁쓸하네요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">기묘한 인생이다. 신발 세워진 거 보고 신발처럼 웃는 짤 생각함 덜 무서울려고 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">액션 볼만하던데? 연기도 좋았는데? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">현빈 왜케 멋있는거예요~~. 다니엘 헤니 와우 정말 보는내내. 눈을 호강시켜주네요 다시한번더 ~~~ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1편보다 더 코믹과 액션이 업되서 돌아온 영화라서 영화관에서 엄청웃고왔음 이번엔 진선규의 악역이 범죄도시 위성락은 아무것도아닌 악역으로보이고 장명준의 포스는 어둠의 악역 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">유쾌한영화 ㅎㅎ재미있게 잘 봤어요! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">평소에 음악 페스티벌을 많이 가는데 그 현장에 있는것 같은 느낌이였음. 그 당시 관객들의 자유로움도 느껴져서 좋았고 노래들도 너무 좋았음. 로큰롤 장르인 척베리가 젤 신났다는 아이러니함이 있지만...ㅎㅎㅎ </t>
+    <t xml:space="preserve">예고편보고 믿고 봤는데. 영화가 너무 더럽고 재미없음. 배우들 아까움  중간쯤까지 괜찮네? 하고 보다가 후반부터는 너무 지루함  옆에 커플들도 보다가 나감 ㅋㅋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">주인공인 줄 알았던 애가 주인공이 아니고 얜 뭐야 하는 애가 튀어나옴.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">개 쌉재밌음 플롯반전 오짐 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">러닝타임을 줄이고 긴박하게 편집했으면 더 좋을듯.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진짜...후 돈 다내고 봤으면 진짜 돈아까워죽을듯..처음으로 평점 남겨봄 1점도 아까움.스토리1도없고 예고편에 낚였고 토 안한게 다행 서인국 이미지변신 이라 길래 기대했는데 뭔 ㅋ 이건 뭔 ㅋ 내용 점점 산으로 가고~ 인생살며 볼 피 이영화에서 다본듯ㅡㅡ 돈개아까움 연기만잘함. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">예고편도 안봤고 1도 기대없이 제목만 보고가서 그런지 나름 신선했는디 ㅋㅋㅋㅋ 서인국 연기 진짜 늘었음 굿 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">먼내용인지 하나도 모르겟네 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">피터지는거만 나오던데 ㅡㅡ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서인국 대체 왜 나온거???? 진심  돈아까움;; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇ...?ㅇㅇ...? 장담컨데 한국역대 최악의영화라고 늘 순위권에 들어갈거라고봄라이벌대전 vs 7광구 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">나머지 배우 다 빼고 성동일하고 장동윤 싸움신만 넣어도 재밌겠다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">완벽한 영화. 재개봉 해서 너무 좋습니다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">쓰레기라는 말도 아깝다. 제발 부탁인데 이 감독은 영화만드는걸 그만두길 바란다. 제발 부탁한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">영화보고 이렇게 어이없는건 영구와 공룡 쮸쭈 이후로 첨이다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">내가 다니엘 블레이크를 공감하게 될날이 올지는 몰랐네요. 인생이 그런건가봅니다 . 받아들일까요 받아들이지말까요 . 그래서 겸손해집니다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">흔들리지 않는 자기 줏대를 찾아서... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅋ ㅑ…   인간영장   ..  아름답다.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">장률 감독 영화는 처음입니다. 과제겸 박해일 배우를 좋아해서 유입되었으나 탁월한 선택이었던 것 같습니다. 아는 만큼 보입니다. 평점 1점 준 머저리들은 애초에 이 영화를 왜 선택했는지 모르겠네요.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이러다 다 죽어~~~~ 응. 다죽어 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">절대보지마세요..정말...재미 1없어요 구라가아니라cgv나가는 사람들 다 아 잘잤다 아니면 졸았어 이얘기만다들..진짜 스토리 전개성 초딩수준... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서인국이 주연이냐?조연이지?서인국 죽는순간 영화관 나오는거 참았다에필로그 그렇게 만들지마라설마 쟤도?쟤도?쟤까지 죽이면...?사람죽는데 시간없더라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">시간과 돈이 아까움; 서인국보러갔다가 봉변당함 누군가 이 영화를 추천한다면 뒤도 돌아보지말고 손절하길 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">시간의 소중함을 느끼게 해줍니다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">소름 돋아요 또 보고싶네요 이런 영화가 또 나올까 싶습니다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서인국말고는 볼게하나도없다...진짜 ㅆ노잼 나는 무슨 좀비영화보는줄... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">역시 아바타..물의길도 기대되네요 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">드래곤볼 팬들을 위한 슈퍼 슈퍼 히어로. 4DX 재미도 좋다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">초반 20분까지는 괜찮았다... 그 후로는 내용도 부실하고 너무 역겨웠다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">피가 솟구치는 장면밖에 생각이 안 나네요 ㅠ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">절대 보지마세요 장르사기 돈아까워.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서인국 연기변신은 인정.근데 너무 잔인하고 스토리 진부하고뭐 없음 ㅡㅡ진짜 다른분들이 말한거 처럼초반 30분만 재밌고 나머진 OOO기 ㅡㅡ영화보는 내내 그냥 나갈까 고민했지만돈 아까워서 안나감. 근데 생각해보니 내 시간 날린게 넘 짜증 ㅡㅡ아니 도대체 무슨 생각으로 이딴 영화를만들었지? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">송중기의 늑대소년은 감동이라도 있지…아는 동생이 서인국 나온다니깐 손사레 치면서 안본다고 거절하길래 야! 성동일도 나와..형 ~ 진짜 날 너무 만만하게 보네…형이나 봐요 !!하 영화 리뷰 하는 애들 믿은 내가 바보다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">영화가 무얼 말하려고 하는 지 잘 모르겠음. 2편이 나올 것 같음. 스토리 설정도 잘못된 거 같고, 쓸데 없이 잔인해서 영화에 몰입을 어렵게 함. 정신 건강을 위해 안 보는게 나은듯함. 영화볼 돈으로 맛있는거 드시길 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭔데...? 아 돈아깝네 감독이 제 정신으로 찍은 영화가 아닌거 같은데.... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">충격적인 장면이 많네요그래도 연기를 잘해서 볼만해요 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">초반 서인국 포스보고 집중했는데 전개가 참... 자막 폰트부터 해서 앉아있기 힘들었습니다.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">영화를 본 소감은...엥? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">무슨 이야기인지 모르겠다 초반에는 재밌었지만 갈수록 한가지 컨셉만 가야하는데 두가지 컨셉으로 가서 별로였다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">집중을안했던적이없음.  새로운장르에새로운느낌에영화. 2탄나올것같음 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서인국이 주인공인줄 알았다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 영화를 보면서 생긴암을 치료하기위해오늘 밤 직박구리 폴더 속 클레멘타인을 봐야겠습니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">하..내피가 솟구친다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진짜 꼭 보셈 !!!! 안보면 인생낭비임 개재밌음 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">저는 무난하게 봤네요 ㅎㅎ 더 무서웠으면 좋았을텐데^^ 시시해서 살짝 졸았지만 재밌었어요~ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅈㄴ재밌음 꼭보셈 ㄹㅇ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">왜 안말렷냐고 하소연하고싶은 영화.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이게뭐냐고!!!! 역대 최악의 영화 구더기때부터 설마했다 진짜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">많이 잔인해요ㅋㅋ감안하고 보셔야 돼요 재밌어요 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">내 인생이 너무 빨리 지나간다고 느낄 때 보십쇼 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">영화 좋네요. 부산 서면cgv 임권택관에서 관람하였습니다. 전반적으로 세련되고, 감각적인 느낌의 영화. 절제된 연기와 감정선이 좋구요, 플롯이 다 의도가 되어있었고, 대화가 필요없을 부분은 암시로 대체한거 정말 좋은 선택 같았습니다. 군더더기 없는 스토리라서 마음에 들었고 여운이 깊게 남습니다. 역시 EDM 보다는 비트가 있는 테크노 쪽이 마음을 움직이는데는 더 탁월한 선택인거 같습니다. 한국 영화에서 이런 세련된 시도 좋은거 같습니다. 주인공의 감정이 격렬해졌다고 풀렸다가 하는 감정이 완급조절도 훌륭. 주인공 김용지 배우가 미인이면서도 신비로운 느낌을 자아내는 분위기를 보여줘서 배역에 잘 어울리는 캐스팅 입니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">그냥 피가 터진다~ 막 터진다 그게 끝이다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">초반 30분까지 재밌다가 어느순간 장르전환되고 내용이 산으로 가는 느낌 .. ㅠㅠ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">무엇을 상상하든 그건 못볼것이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">하... 진짜 내 생애 처음 토쏠리는 영화 참고로 나는 고어물 좋아한다 근데 이건 아니지... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">끝더 이상 설명이 필요할까. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진짜 에바야ㅔ너무 잔인했었아요ㅐ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">별로 공포영화스럽진 않았고 그냥저냥 킬링타임용 영화였네요, 5천원에봐서 괜찮앗는데 정가주고봤으면 억울했을듯 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">마녀 스핀오프 느낌. 더불어 피로 잔치를 함. 근데 피잔치가 역할 정도로 너무 과함. 반전은 서씨가 주인공이 아님. 오히려 프랑켄슈타인이 더 비중이 있음. 좋은 배우에 스토리도 나쁘지는 않은데 조절을 잘 못한 느낌. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">늑대사냥 볼바에 그 돈으로 더위사냥 여러개 사드세요 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">묻지마 살인을 보고싶으시면 보세요 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">기대를 하지 않아서 다행이다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">국산이 이정도면 선방했지 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">초반만 재밌고 나머지는 노잼임스토리가 산을 넘어서 수리남까지 가버림 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">그냥 배우 얼굴만봐도 좋은데 액션 화려하고 웃기고 스트레스 풀리네요. 특히 여자분들 힐링됩니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">죽여 또 죽여 계속 죽여 범죄-판타지-스릴러개열받네 영화 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">좀비 나오고 망한거 같네요그 전에는 잔인해도 그럭저럭.. 기대했는데 서인국이 주인공 아니었나욬ㅋㅋㅋㅋ아님 액션이 좀 괜찮았으면 재밌었을텐데.. ㅠㅠ그냥 피칠갑 하고 다 죽는 영화 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">연출은 좋았지만 올해 본 영화 중 가장 쓰레기 같고 돈아까운 영화는 처음 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이..이게 뭐노... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">하아.3...2.1.... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">중간중간 노래할때 아이돌 무대처럼 꾸며놔서 좀 깨는듯... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">명작이 주는 여운은 여전히 남아있다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서인국 별로 안좋아했는데이 영화 보는 낸내 왤케 섹시해?? 외쳤음 멋져부렁 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">아무것도 적고싶지않음.뭘 말하는건지 모르겠을뿐더러 피가 너무 많아서 집중이 안됨..이 영화 1-2번 더 보다간 내가 싸이코가 될거 같아요한마디로 '이게뭐야'.장점은 배우들 모습 한번정도 더 볼 수 있다정도?감상포인트가 없다.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">똑똑하고 사랑스럽고 아름다운 사람이 정말 남들처럼 사랑받을수 있었고 행복할 수 있었음에도 불구하고 자라온 환경으로부터 형성된 낮은 자존감과 애정결핍으로 인해 인생이 망가진 전형적인 케이스... 가정환경과 부모역할이 그만큼 중요함. 지능이 온전한 사람이어도 정신이 불안정하면 인생이 꼬일 수 밖에 없다. 오히려 지능이 높을수록 본인이 나이든것을 느끼고 청춘이 꺾이는 순간, 더더욱 마음이 고달프고 괴롭고 쓸쓸해진다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">인생 최악의 영화,,, 속이 울렁거림 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 무엇을 얘기하고 싶은지도 모르겠고 그냥 감독이 중2병에서 못벗어나 잔인한 클리셰만 잔뜩 넣고 마지막에 2편 예고하는 내용만 넣어두는 아무내용 대잔치임 처음부터 끝까지 사지절단에 피 분수만 오지게 터지는것만 나오고 내용도 드럽게 재미없고 중2병걸린 중딩들이 지들끼리 모여서 한명씩 소설 연달아서 쓴거 노트 줏어다가 영화화시킨 느낌임 2편 만들 떡밥 넣었는데 지들끼리 영화 만들고 모니터링 하면서 노잼에다 내용 이상하다는걸 정녕 느끼지 못했는지 그것도 신기하고 관객들이 2편 기대할줄 알고 어줍잖게 떡밥 던진것도 신기함.다행히도 난 무료관람권으로 봐서 너무 다행임 돈주고 보면 얼마나 억울했겠음? 오죽하면 관객들이 보다가 어이없어서 여기저기서 피식피식 거리더라. 요약하자면 영화 주내용이  사지절단, 피분수, 게이 성교, 영화 마녀 코스프레 장면.  진짜 이게 다임. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">각본이 허접하니 연출 또한 갈피를 못잡는다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진심 욕나온다 마녀 따라하고 싶었나 본데 너무 하드코어로 만들고 스토리가 병맛이라 ㅈ망한듯이거 마녀마냥 후속편 각잡는거 같은데 진짜 만들면 죽는다 아니 어차피 망해서 속편은 안나올듯서인국은 뭔 주인공처럼 광고해놓고는 할많하않이다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이..이게뭐지 장르가 이게뭐지 ...서인국만 기억에남는영화서인국나오는동안 쫄깃함 그뒤로 장르바뀜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7광구보다 더 ㅆ ㅡ ㄹ 와 진짜 중간에 나갈뻔 했네 진짜 내 시간이 아깝다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진심 0점 주고 싶따ㅡㅡ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">스토리가 탄탄해서, 끝까지 손에 땀을 쥐게 했습니다♡  여러 배우들과 이정재,정우성배우의 케미는 한동안 잊지 못할 듯해요대사전달력이 좀더 좋았더라면, 하는 아쉬움이 있습니다^^ 그래서 전혜진배우님의 대사딕션이 인상깊었습니다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">시간과 돈이 아까움 감동도 재미도 스토리도 없는 맥락 없는 영화... 제 인생 제일 재미없는 영화 1위 입니다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">배우들 연기는 좋았고 전개 빨라서 나름 몰입해서 보긴 봤는데 일단 사람을 개미 죽이듯 너무 많이, 너무 쉽게 죽인다...가족끼리 볼 영화는 아니고 혼자나 친구끼리 한 번쯤 보는건 괜찮을 듯? 예상 밖 전개에 좀 신선한 부분도 있었지만 개인적으로 결말이 좀 볼일 보다 만 느낌이라 속편 나와야 그나마 납득이 될 듯 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">잔인함, 잔인한거 싫어하면 보기 힘듬.난 보통사람인데, 그래도 재밌게 봤음.마녀2랑 비슷한 느낌은 맞는데 별점 테러 당할정돈 아님. 난 긴장되고 재밌었음. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">늑대가 나오지  차라리.... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">극중 긴장감 한스푼.. 잔인함 한사발..보다가 콜라에서 피맛나는줄..기대많이했는데 많이 아쉽다.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">예고편보고 기대했다가 정말 실망함 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진짜 역대급 인생 살면서 개노잼 영화 감독 찾아가서 머리 똑같이 터져뿌고 싶음 ; 씨이이이ㅣ비바ㅏㄹ  돈돌려줘 개아깝네 버리는게 훨씬 낫다 ,,,, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">영화를 보고 나오니 내 생이 꿈이 아닐까, 잠에서 깨어나면 나비족의 몸이지 않을까.. 하는 느낌이다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">보다 중간에 나온 영화는 처음이다 개연성은 개나줘버린듯 도통 뭔 내용인지 1도 모르겠고 대사는 유치하기 짝이없고 두시간 내내 잔인하게 피만 튀기는 대혼란 그 잡채 잘난 배우들 모셔다가 고생만 시킨듯 참 마녀 얘기 하는사람들 많은데 마녀 털끝만도 못함 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">스포츠맨쉽과 우정 그리고 올바른 덕의 다큐 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이런 영화가 2022 년에 개봉한다는 게 슬프다. 한 쪽에서는 영화제에서 상 받고 있는데 이런 쓰레기 영화도 개봉을 하고 있네. 스토리 작가도 문제고, 영화를 제작한 제작사도 문제고, 투자해준 사람들도 문제다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">긴장감도 팽팽하고 여운도 남는 꽤 훌륭한 영화였다 개인적으로 딱 하나 아쉬웠던 점은 외국분이 한국어가 서툴러서 대사가 잘 들리지 않았고 집중도가 흐려졌다는거...그거 말고는 전반적으로 다 만족하며 몰입해서 봤다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이거 보지말고 늑대소년 다시 보는 게 삶에 더 유익합니다 </t>
   </si>
 </sst>
 </file>
@@ -822,131 +777,128 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -954,362 +906,356 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1317,529 +1263,535 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
         <v>26</v>
       </c>
-      <c r="B66" t="s">
-        <v>43</v>
-      </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>25</v>
+      </c>
+      <c r="C82" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C88" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C94" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1847,65 +1799,65 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/1일차/영화.xlsx
+++ b/1일차/영화.xlsx
@@ -25,6 +25,9 @@
     <t>제목</t>
   </si>
   <si>
+    <t>토르: 러브 앤 썬더</t>
+  </si>
+  <si>
     <t>늑대사냥</t>
   </si>
   <si>
@@ -88,24 +91,21 @@
     <t>헌트</t>
   </si>
   <si>
-    <t>스피드 큐브의 천재들</t>
+    <t>10</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -115,6 +115,30 @@
     <t>6</t>
   </si>
   <si>
+    <t xml:space="preserve">그래도 괜찮은 영화였다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23년 살면서 이런 똥쓰레기 영화는 진심으로 처음입니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">그 괴물인지 시체 나오기 직전 까진 엄청 재미있음 그 이후는 말 안 한다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">노잼..좀비가 왜나왔을까..경찰vs범죄자 영화인줄알았는데.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">아..감독님의 정신세계가 궁금해져서 찾아본 영화는 처음입니다.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">기대하지마세요..ㅠ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐 이게? 내가 뭘 본거임? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">평점리뷰 진짜 인생 처음으로 합니다. 영화 재미없어도 이런거 귀찮아서 작성하는 성격 아닌데 너무충격먹어서 리뷰 남깁니다. 길게 말할것도 없고 그냥 안보시는거 추천 드리겠습니다. </t>
+  </si>
+  <si>
     <t xml:space="preserve">예고편보고 믿고 봤는데. 영화가 너무 더럽고 재미없음. 배우들 아까움  중간쯤까지 괜찮네? 하고 보다가 후반부터는 너무 지루함  옆에 커플들도 보다가 나감 ㅋㅋ </t>
   </si>
   <si>
@@ -374,30 +398,6 @@
   </si>
   <si>
     <t xml:space="preserve">극중 긴장감 한스푼.. 잔인함 한사발..보다가 콜라에서 피맛나는줄..기대많이했는데 많이 아쉽다.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">예고편보고 기대했다가 정말 실망함 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진짜 역대급 인생 살면서 개노잼 영화 감독 찾아가서 머리 똑같이 터져뿌고 싶음 ; 씨이이이ㅣ비바ㅏㄹ  돈돌려줘 개아깝네 버리는게 훨씬 낫다 ,,,, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">영화를 보고 나오니 내 생이 꿈이 아닐까, 잠에서 깨어나면 나비족의 몸이지 않을까.. 하는 느낌이다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">보다 중간에 나온 영화는 처음이다 개연성은 개나줘버린듯 도통 뭔 내용인지 1도 모르겠고 대사는 유치하기 짝이없고 두시간 내내 잔인하게 피만 튀기는 대혼란 그 잡채 잘난 배우들 모셔다가 고생만 시킨듯 참 마녀 얘기 하는사람들 많은데 마녀 털끝만도 못함 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">스포츠맨쉽과 우정 그리고 올바른 덕의 다큐 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이런 영화가 2022 년에 개봉한다는 게 슬프다. 한 쪽에서는 영화제에서 상 받고 있는데 이런 쓰레기 영화도 개봉을 하고 있네. 스토리 작가도 문제고, 영화를 제작한 제작사도 문제고, 투자해준 사람들도 문제다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">긴장감도 팽팽하고 여운도 남는 꽤 훌륭한 영화였다 개인적으로 딱 하나 아쉬웠던 점은 외국분이 한국어가 서툴러서 대사가 잘 들리지 않았고 집중도가 흐려졌다는거...그거 말고는 전반적으로 다 만족하며 몰입해서 봤다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이거 보지말고 늑대소년 다시 보는 게 삶에 더 유익합니다 </t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -810,95 +810,95 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -906,7 +906,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>60</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>64</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>65</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>67</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>69</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
         <v>70</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
         <v>27</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
         <v>72</v>
@@ -1222,125 +1222,125 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
-      </c>
-      <c r="C51" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
-      </c>
-      <c r="C53" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
         <v>82</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
         <v>85</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
         <v>86</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
         <v>87</v>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C60" t="s">
         <v>88</v>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
         <v>89</v>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
         <v>90</v>
@@ -1436,10 +1436,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
         <v>91</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
         <v>92</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
         <v>93</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
         <v>95</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
         <v>97</v>
@@ -1513,10 +1513,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
         <v>98</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
         <v>99</v>
@@ -1535,10 +1535,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
         <v>100</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
         <v>101</v>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>102</v>
@@ -1568,10 +1568,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
         <v>103</v>
@@ -1579,114 +1579,114 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
         <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B82" t="s">
         <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
         <v>113</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C88" t="s">
         <v>114</v>
@@ -1719,10 +1719,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
         <v>115</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
         <v>116</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
         <v>117</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
         <v>118</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
         <v>120</v>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
         <v>121</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C96" t="s">
         <v>122</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C97" t="s">
         <v>123</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C98" t="s">
         <v>124</v>
@@ -1829,10 +1829,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C99" t="s">
         <v>125</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C100" t="s">
         <v>126</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C101" t="s">
         <v>127</v>
